--- a/2023/israel_ligat-ha-al_2023-2024.xlsx
+++ b/2023/israel_ligat-ha-al_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V35"/>
+  <dimension ref="A1:V36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Hapoel Haifa</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>SC Ashdod</t>
+          <t>Maccabi Bnei Raina</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>2.03</v>
+        <v>1.26</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.39</v>
+        <v>1.22</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>17/09/2023 18:40</t>
+          <t>17/09/2023 18:39</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.44</v>
+        <v>5.83</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.3</v>
+        <v>6.43</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>17/09/2023 18:40</t>
+          <t>17/09/2023 18:39</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>3.7</v>
+        <v>10.6</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>3.1</v>
+        <v>12.63</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>17/09/2023 18:40</t>
+          <t>17/09/2023 18:39</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-haifa-sc-ashdod/ttVLJQGH/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/maccabi-tel-aviv-maccabi-bnei-raina/KQtDLnn5/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Hapoel Haifa</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Maccabi Bnei Raina</t>
+          <t>SC Ashdod</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.26</v>
+        <v>2.03</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.22</v>
+        <v>2.39</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>17/09/2023 18:39</t>
+          <t>17/09/2023 18:40</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>5.83</v>
+        <v>3.44</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>6.43</v>
+        <v>3.3</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>17/09/2023 18:39</t>
+          <t>17/09/2023 18:40</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>10.6</v>
+        <v>3.7</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>12.63</v>
+        <v>3.1</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>17/09/2023 18:39</t>
+          <t>17/09/2023 18:40</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/maccabi-tel-aviv-maccabi-bnei-raina/KQtDLnn5/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-haifa-sc-ashdod/ttVLJQGH/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Netanya</t>
+          <t>Maccabi Petah Tikva</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Hapoel Petah Tikva</t>
+          <t>Maccabi Haifa</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>1.47</v>
+        <v>4.92</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.7</v>
+        <v>5.65</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>17/09/2023 18:55</t>
+          <t>17/09/2023 18:59</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>4.21</v>
+        <v>3.8</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.92</v>
+        <v>4.27</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>17/09/2023 18:55</t>
+          <t>17/09/2023 18:59</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>6.12</v>
+        <v>1.69</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>4.85</v>
+        <v>1.56</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>17/09/2023 18:55</t>
+          <t>17/09/2023 18:50</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/netanya-hapoel-petah-tikva/naT5N8Hh/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/maccabi-petah-tikva-maccabi-haifa/jXZdPUnt/</t>
         </is>
       </c>
     </row>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Maccabi Petah Tikva</t>
+          <t>Netanya</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Maccabi Haifa</t>
+          <t>Hapoel Petah Tikva</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>4.92</v>
+        <v>1.47</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>5.65</v>
+        <v>1.7</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>17/09/2023 18:59</t>
+          <t>17/09/2023 18:55</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.8</v>
+        <v>4.21</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>4.27</v>
+        <v>3.92</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>17/09/2023 18:59</t>
+          <t>17/09/2023 18:55</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>1.69</v>
+        <v>6.12</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>1.56</v>
+        <v>4.85</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>17/09/2023 18:50</t>
+          <t>17/09/2023 18:55</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/maccabi-petah-tikva-maccabi-haifa/jXZdPUnt/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/netanya-hapoel-petah-tikva/naT5N8Hh/</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Hapoel Jerusalem</t>
+          <t>SC Ashdod</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -2605,63 +2605,63 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Netanya</t>
+          <t>Maccabi Petah Tikva</t>
         </is>
       </c>
       <c r="I24" t="n">
         <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>2.7</v>
+        <v>2.16</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>17/09/2023 18:12</t>
+          <t>20/09/2023 15:12</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.66</v>
+        <v>2.37</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>23/09/2023 18:44</t>
+          <t>23/09/2023 18:43</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.21</v>
+        <v>3.31</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>17/09/2023 18:12</t>
+          <t>20/09/2023 15:12</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.22</v>
+        <v>3.32</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>23/09/2023 18:37</t>
+          <t>23/09/2023 18:42</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>2.58</v>
+        <v>3.45</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>17/09/2023 18:12</t>
+          <t>20/09/2023 15:12</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>2.8</v>
+        <v>3.12</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>23/09/2023 18:44</t>
+          <t>23/09/2023 18:43</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-jerusalem-netanya/2DlpKfSc/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/sc-ashdod-maccabi-petah-tikva/fqZPIpWN/</t>
         </is>
       </c>
     </row>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>SC Ashdod</t>
+          <t>Hapoel Jerusalem</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -2697,63 +2697,63 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Maccabi Petah Tikva</t>
+          <t>Netanya</t>
         </is>
       </c>
       <c r="I25" t="n">
         <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>2.16</v>
+        <v>2.7</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>20/09/2023 15:12</t>
+          <t>17/09/2023 18:12</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.37</v>
+        <v>2.66</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>23/09/2023 18:43</t>
+          <t>23/09/2023 18:44</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.31</v>
+        <v>3.21</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>20/09/2023 15:12</t>
+          <t>17/09/2023 18:12</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.32</v>
+        <v>3.22</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>23/09/2023 18:42</t>
+          <t>23/09/2023 18:37</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.45</v>
+        <v>2.58</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>20/09/2023 15:12</t>
+          <t>17/09/2023 18:12</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>3.12</v>
+        <v>2.8</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>23/09/2023 18:43</t>
+          <t>23/09/2023 18:44</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/sc-ashdod-maccabi-petah-tikva/fqZPIpWN/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-jerusalem-netanya/2DlpKfSc/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Hapoel Haifa</t>
+          <t>SC Ashdod</t>
         </is>
       </c>
       <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Hapoel Hadera</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
         <v>1</v>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Maccabi Bnei Raina</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>2</v>
-      </c>
       <c r="J31" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,48 +3264,48 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.11</v>
+        <v>1.81</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
+          <t>30/09/2023 18:41</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
           <t>30/09/2023 18:44</t>
         </is>
       </c>
-      <c r="N31" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="O31" t="inlineStr">
+      <c r="R31" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="S31" t="inlineStr">
         <is>
           <t>23/09/2023 18:13</t>
         </is>
       </c>
-      <c r="P31" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="Q31" t="inlineStr">
+      <c r="T31" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="U31" t="inlineStr">
         <is>
           <t>30/09/2023 18:44</t>
         </is>
       </c>
-      <c r="R31" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>23/09/2023 18:13</t>
-        </is>
-      </c>
-      <c r="T31" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>30/09/2023 18:44</t>
-        </is>
-      </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-haifa-maccabi-bnei-raina/xU1wcOQ1/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/sc-ashdod-hapoel-hadera/jXkLL732/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>SC Ashdod</t>
+          <t>Hapoel Haifa</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Hapoel Hadera</t>
+          <t>Maccabi Bnei Raina</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>2.13</v>
+        <v>2.07</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>1.81</v>
+        <v>2.11</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>30/09/2023 18:41</t>
+          <t>30/09/2023 18:44</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.34</v>
+        <v>3.37</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.58</v>
+        <v>3.32</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         </is>
       </c>
       <c r="R32" t="n">
-        <v>3.48</v>
+        <v>3.63</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>4.6</v>
+        <v>3.72</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/sc-ashdod-hapoel-hadera/jXkLL732/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-haifa-maccabi-bnei-raina/xU1wcOQ1/</t>
         </is>
       </c>
     </row>
@@ -3674,6 +3674,98 @@
       <c r="V35" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/israel/ligat-ha-al/beitar-jerusalem-hapoel-tel-aviv/OQcZc4Be/</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>45255.79166666666</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Maccabi Haifa</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>2</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Hapoel Petah Tikva</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:45</t>
+        </is>
+      </c>
+      <c r="R36" t="n">
+        <v>16.61</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="T36" t="n">
+        <v>14.19</v>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:45</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/maccabi-haifa-hapoel-petah-tikva/hxrcfAm6/</t>
         </is>
       </c>
     </row>

--- a/2023/israel_ligat-ha-al_2023-2024.xlsx
+++ b/2023/israel_ligat-ha-al_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V36"/>
+  <dimension ref="A1:V37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>SC Ashdod</t>
+          <t>Hapoel Haifa</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Hapoel Hadera</t>
+          <t>Maccabi Bnei Raina</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>2.13</v>
+        <v>2.07</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.81</v>
+        <v>2.11</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>30/09/2023 18:41</t>
+          <t>30/09/2023 18:44</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.34</v>
+        <v>3.37</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.58</v>
+        <v>3.32</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3.48</v>
+        <v>3.63</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>4.6</v>
+        <v>3.72</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/sc-ashdod-hapoel-hadera/jXkLL732/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-haifa-maccabi-bnei-raina/xU1wcOQ1/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Hapoel Haifa</t>
+          <t>SC Ashdod</t>
         </is>
       </c>
       <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Hapoel Hadera</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
         <v>1</v>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Maccabi Bnei Raina</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>2</v>
-      </c>
       <c r="J32" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,48 +3356,48 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.11</v>
+        <v>1.81</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
+          <t>30/09/2023 18:41</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
           <t>30/09/2023 18:44</t>
         </is>
       </c>
-      <c r="N32" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="O32" t="inlineStr">
+      <c r="R32" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="S32" t="inlineStr">
         <is>
           <t>23/09/2023 18:13</t>
         </is>
       </c>
-      <c r="P32" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="Q32" t="inlineStr">
+      <c r="T32" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="U32" t="inlineStr">
         <is>
           <t>30/09/2023 18:44</t>
         </is>
       </c>
-      <c r="R32" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>23/09/2023 18:13</t>
-        </is>
-      </c>
-      <c r="T32" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>30/09/2023 18:44</t>
-        </is>
-      </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-haifa-maccabi-bnei-raina/xU1wcOQ1/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/sc-ashdod-hapoel-hadera/jXkLL732/</t>
         </is>
       </c>
     </row>
@@ -3766,6 +3766,98 @@
       <c r="V36" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/israel/ligat-ha-al/maccabi-haifa-hapoel-petah-tikva/hxrcfAm6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>45262.58333333334</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Hapoel Tel Aviv</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Hapoel Haifa</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>02/10/2023 19:42</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>02/12/2023 13:53</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>02/10/2023 19:42</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>02/12/2023 13:53</t>
+        </is>
+      </c>
+      <c r="R37" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>02/10/2023 19:42</t>
+        </is>
+      </c>
+      <c r="T37" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>02/12/2023 13:53</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-tel-aviv-hapoel-haifa/lQ4QI5mL/</t>
         </is>
       </c>
     </row>

--- a/2023/israel_ligat-ha-al_2023-2024.xlsx
+++ b/2023/israel_ligat-ha-al_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V37"/>
+  <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Hapoel Haifa</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Maccabi Bnei Raina</t>
+          <t>SC Ashdod</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.26</v>
+        <v>2.03</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.22</v>
+        <v>2.39</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>17/09/2023 18:39</t>
+          <t>17/09/2023 18:40</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>5.83</v>
+        <v>3.44</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>6.43</v>
+        <v>3.3</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>17/09/2023 18:39</t>
+          <t>17/09/2023 18:40</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>10.6</v>
+        <v>3.7</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>12.63</v>
+        <v>3.1</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>17/09/2023 18:39</t>
+          <t>17/09/2023 18:40</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/maccabi-tel-aviv-maccabi-bnei-raina/KQtDLnn5/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-haifa-sc-ashdod/ttVLJQGH/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Hapoel Haifa</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>SC Ashdod</t>
+          <t>Maccabi Bnei Raina</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>2.03</v>
+        <v>1.26</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.39</v>
+        <v>1.22</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>17/09/2023 18:40</t>
+          <t>17/09/2023 18:39</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.44</v>
+        <v>5.83</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.3</v>
+        <v>6.43</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>17/09/2023 18:40</t>
+          <t>17/09/2023 18:39</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>3.7</v>
+        <v>10.6</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>3.1</v>
+        <v>12.63</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>17/09/2023 18:40</t>
+          <t>17/09/2023 18:39</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-haifa-sc-ashdod/ttVLJQGH/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/maccabi-tel-aviv-maccabi-bnei-raina/KQtDLnn5/</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>SC Ashdod</t>
+          <t>Hapoel Jerusalem</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -2605,63 +2605,63 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Maccabi Petah Tikva</t>
+          <t>Netanya</t>
         </is>
       </c>
       <c r="I24" t="n">
         <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>2.16</v>
+        <v>2.7</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>20/09/2023 15:12</t>
+          <t>17/09/2023 18:12</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.37</v>
+        <v>2.66</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>23/09/2023 18:43</t>
+          <t>23/09/2023 18:44</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.31</v>
+        <v>3.21</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>20/09/2023 15:12</t>
+          <t>17/09/2023 18:12</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.32</v>
+        <v>3.22</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>23/09/2023 18:42</t>
+          <t>23/09/2023 18:37</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.45</v>
+        <v>2.58</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>20/09/2023 15:12</t>
+          <t>17/09/2023 18:12</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.12</v>
+        <v>2.8</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>23/09/2023 18:43</t>
+          <t>23/09/2023 18:44</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/sc-ashdod-maccabi-petah-tikva/fqZPIpWN/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-jerusalem-netanya/2DlpKfSc/</t>
         </is>
       </c>
     </row>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Hapoel Jerusalem</t>
+          <t>SC Ashdod</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -2697,63 +2697,63 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Netanya</t>
+          <t>Maccabi Petah Tikva</t>
         </is>
       </c>
       <c r="I25" t="n">
         <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>2.7</v>
+        <v>2.16</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>17/09/2023 18:12</t>
+          <t>20/09/2023 15:12</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.66</v>
+        <v>2.37</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>23/09/2023 18:44</t>
+          <t>23/09/2023 18:43</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.21</v>
+        <v>3.31</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>17/09/2023 18:12</t>
+          <t>20/09/2023 15:12</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.22</v>
+        <v>3.32</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>23/09/2023 18:37</t>
+          <t>23/09/2023 18:42</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>2.58</v>
+        <v>3.45</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>17/09/2023 18:12</t>
+          <t>20/09/2023 15:12</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>2.8</v>
+        <v>3.12</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>23/09/2023 18:44</t>
+          <t>23/09/2023 18:43</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-jerusalem-netanya/2DlpKfSc/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/sc-ashdod-maccabi-petah-tikva/fqZPIpWN/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Hapoel Haifa</t>
+          <t>SC Ashdod</t>
         </is>
       </c>
       <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Hapoel Hadera</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
         <v>1</v>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Maccabi Bnei Raina</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>2</v>
-      </c>
       <c r="J31" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,48 +3264,48 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.11</v>
+        <v>1.81</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
+          <t>30/09/2023 18:41</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
           <t>30/09/2023 18:44</t>
         </is>
       </c>
-      <c r="N31" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="O31" t="inlineStr">
+      <c r="R31" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="S31" t="inlineStr">
         <is>
           <t>23/09/2023 18:13</t>
         </is>
       </c>
-      <c r="P31" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="Q31" t="inlineStr">
+      <c r="T31" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="U31" t="inlineStr">
         <is>
           <t>30/09/2023 18:44</t>
         </is>
       </c>
-      <c r="R31" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>23/09/2023 18:13</t>
-        </is>
-      </c>
-      <c r="T31" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>30/09/2023 18:44</t>
-        </is>
-      </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-haifa-maccabi-bnei-raina/xU1wcOQ1/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/sc-ashdod-hapoel-hadera/jXkLL732/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>SC Ashdod</t>
+          <t>Hapoel Haifa</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Hapoel Hadera</t>
+          <t>Maccabi Bnei Raina</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>2.13</v>
+        <v>2.07</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>1.81</v>
+        <v>2.11</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>30/09/2023 18:41</t>
+          <t>30/09/2023 18:44</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.34</v>
+        <v>3.37</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.58</v>
+        <v>3.32</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         </is>
       </c>
       <c r="R32" t="n">
-        <v>3.48</v>
+        <v>3.63</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>4.6</v>
+        <v>3.72</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/sc-ashdod-hapoel-hadera/jXkLL732/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-haifa-maccabi-bnei-raina/xU1wcOQ1/</t>
         </is>
       </c>
     </row>
@@ -3858,6 +3858,374 @@
       <c r="V37" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-tel-aviv-hapoel-haifa/lQ4QI5mL/</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>45262.65625</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Hapoel Hadera</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>3</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Maccabi Petah Tikva</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>05/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:06</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>05/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:23</t>
+        </is>
+      </c>
+      <c r="R38" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>05/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T38" t="n">
+        <v>2</v>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:06</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-hadera-maccabi-petah-tikva/UNlPKRI8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>45262.6875</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Sakhnin</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Netanya</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>01/10/2023 19:42</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>02/12/2023 11:00</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>01/10/2023 19:42</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>02/12/2023 11:00</t>
+        </is>
+      </c>
+      <c r="R39" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>01/10/2023 19:42</t>
+        </is>
+      </c>
+      <c r="T39" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>02/12/2023 11:00</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/sakhnin-netanya/tOq5BNue/</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>45262.75</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Maccabi Bnei Raina</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>SC Ashdod</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>30/09/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>02/12/2023 17:51</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>30/09/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>02/12/2023 17:51</t>
+        </is>
+      </c>
+      <c r="R40" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>30/09/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T40" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>02/12/2023 17:51</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/maccabi-bnei-raina-sc-ashdod/AZ5MJoYE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>45262.77083333334</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Hapoel Petah Tikva</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Beitar Jerusalem</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>04/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>02/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>04/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>02/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R41" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>04/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T41" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:48</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-petah-tikva-beitar-jerusalem/rm4UHP2R/</t>
         </is>
       </c>
     </row>

--- a/2023/israel_ligat-ha-al_2023-2024.xlsx
+++ b/2023/israel_ligat-ha-al_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V41"/>
+  <dimension ref="A1:V63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Hapoel Haifa</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>SC Ashdod</t>
+          <t>Maccabi Bnei Raina</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>2.03</v>
+        <v>1.26</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.39</v>
+        <v>1.22</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>17/09/2023 18:40</t>
+          <t>17/09/2023 18:39</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.44</v>
+        <v>5.83</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.3</v>
+        <v>6.43</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>17/09/2023 18:40</t>
+          <t>17/09/2023 18:39</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>3.7</v>
+        <v>10.6</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>3.1</v>
+        <v>12.63</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>17/09/2023 18:40</t>
+          <t>17/09/2023 18:39</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-haifa-sc-ashdod/ttVLJQGH/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/maccabi-tel-aviv-maccabi-bnei-raina/KQtDLnn5/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Hapoel Haifa</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Maccabi Bnei Raina</t>
+          <t>SC Ashdod</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.26</v>
+        <v>2.03</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.22</v>
+        <v>2.39</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>17/09/2023 18:39</t>
+          <t>17/09/2023 18:40</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>5.83</v>
+        <v>3.44</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>6.43</v>
+        <v>3.3</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>17/09/2023 18:39</t>
+          <t>17/09/2023 18:40</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>10.6</v>
+        <v>3.7</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>12.63</v>
+        <v>3.1</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>17/09/2023 18:39</t>
+          <t>17/09/2023 18:40</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/maccabi-tel-aviv-maccabi-bnei-raina/KQtDLnn5/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-haifa-sc-ashdod/ttVLJQGH/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Maccabi Petah Tikva</t>
+          <t>Netanya</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Maccabi Haifa</t>
+          <t>Hapoel Petah Tikva</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>4.92</v>
+        <v>1.47</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>5.65</v>
+        <v>1.7</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>17/09/2023 18:59</t>
+          <t>17/09/2023 18:55</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.8</v>
+        <v>4.21</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>4.27</v>
+        <v>3.92</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>17/09/2023 18:59</t>
+          <t>17/09/2023 18:55</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>1.69</v>
+        <v>6.12</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>1.56</v>
+        <v>4.85</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>17/09/2023 18:50</t>
+          <t>17/09/2023 18:55</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/maccabi-petah-tikva-maccabi-haifa/jXZdPUnt/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/netanya-hapoel-petah-tikva/naT5N8Hh/</t>
         </is>
       </c>
     </row>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Netanya</t>
+          <t>Maccabi Petah Tikva</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Hapoel Petah Tikva</t>
+          <t>Maccabi Haifa</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>1.47</v>
+        <v>4.92</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.7</v>
+        <v>5.65</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>17/09/2023 18:55</t>
+          <t>17/09/2023 18:59</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>4.21</v>
+        <v>3.8</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.92</v>
+        <v>4.27</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>17/09/2023 18:55</t>
+          <t>17/09/2023 18:59</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>6.12</v>
+        <v>1.69</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>4.85</v>
+        <v>1.56</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>17/09/2023 18:55</t>
+          <t>17/09/2023 18:50</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/netanya-hapoel-petah-tikva/naT5N8Hh/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/maccabi-petah-tikva-maccabi-haifa/jXZdPUnt/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>SC Ashdod</t>
+          <t>Hapoel Haifa</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Hapoel Hadera</t>
+          <t>Maccabi Bnei Raina</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>2.13</v>
+        <v>2.07</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.81</v>
+        <v>2.11</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>30/09/2023 18:41</t>
+          <t>30/09/2023 18:44</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.34</v>
+        <v>3.37</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.58</v>
+        <v>3.32</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3.48</v>
+        <v>3.63</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>4.6</v>
+        <v>3.72</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/sc-ashdod-hapoel-hadera/jXkLL732/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-haifa-maccabi-bnei-raina/xU1wcOQ1/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Hapoel Haifa</t>
+          <t>SC Ashdod</t>
         </is>
       </c>
       <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Hapoel Hadera</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
         <v>1</v>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Maccabi Bnei Raina</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>2</v>
-      </c>
       <c r="J32" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,48 +3356,48 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.11</v>
+        <v>1.81</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
+          <t>30/09/2023 18:41</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
           <t>30/09/2023 18:44</t>
         </is>
       </c>
-      <c r="N32" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="O32" t="inlineStr">
+      <c r="R32" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="S32" t="inlineStr">
         <is>
           <t>23/09/2023 18:13</t>
         </is>
       </c>
-      <c r="P32" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="Q32" t="inlineStr">
+      <c r="T32" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="U32" t="inlineStr">
         <is>
           <t>30/09/2023 18:44</t>
         </is>
       </c>
-      <c r="R32" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>23/09/2023 18:13</t>
-        </is>
-      </c>
-      <c r="T32" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>30/09/2023 18:44</t>
-        </is>
-      </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-haifa-maccabi-bnei-raina/xU1wcOQ1/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/sc-ashdod-hapoel-hadera/jXkLL732/</t>
         </is>
       </c>
     </row>
@@ -4226,6 +4226,2030 @@
       <c r="V41" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-petah-tikva-beitar-jerusalem/rm4UHP2R/</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45263.79166666666</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Hapoel Jerusalem</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Maccabi Tel Aviv</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>2</v>
+      </c>
+      <c r="J42" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>01/10/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>03/12/2023 18:59</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>01/10/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>03/12/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>01/10/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T42" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>03/12/2023 18:59</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-jerusalem-maccabi-tel-aviv/K8edDqBr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45263.8125</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Maccabi Haifa</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>H. Beer Sheva</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>01/10/2023 19:42</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>03/12/2023 19:29</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>01/10/2023 19:42</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>03/12/2023 19:29</t>
+        </is>
+      </c>
+      <c r="R43" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>01/10/2023 19:42</t>
+        </is>
+      </c>
+      <c r="T43" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>03/12/2023 19:29</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/maccabi-haifa-h-beer-sheva/2Xp1C3Ql/</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45265.75</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Hapoel Hadera</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Maccabi Bnei Raina</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>2</v>
+      </c>
+      <c r="J44" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>02/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>05/12/2023 17:57</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>02/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>05/12/2023 17:50</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>02/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T44" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>05/12/2023 17:50</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-hadera-maccabi-bnei-raina/txPwQMfl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45265.75</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Maccabi Petah Tikva</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Netanya</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>04/12/2023 12:06</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>05/12/2023 17:52</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>04/12/2023 12:06</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>05/12/2023 17:51</t>
+        </is>
+      </c>
+      <c r="R45" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>04/12/2023 12:06</t>
+        </is>
+      </c>
+      <c r="T45" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>05/12/2023 17:52</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/maccabi-petah-tikva-netanya/Acl9Ase1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45265.78125</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Hapoel Haifa</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Hapoel Petah Tikva</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>04/12/2023 12:06</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>05/12/2023 18:40</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>04/12/2023 12:06</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>05/12/2023 18:40</t>
+        </is>
+      </c>
+      <c r="R46" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>04/12/2023 12:06</t>
+        </is>
+      </c>
+      <c r="T46" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>05/12/2023 18:40</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-haifa-hapoel-petah-tikva/Mir7VrXQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45265.79166666666</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>SC Ashdod</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>2</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Hapoel Tel Aviv</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>15/10/2023 19:42</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>05/12/2023 18:55</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>15/10/2023 19:42</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>05/12/2023 18:58</t>
+        </is>
+      </c>
+      <c r="R47" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>15/10/2023 19:42</t>
+        </is>
+      </c>
+      <c r="T47" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>05/12/2023 18:55</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/sc-ashdod-hapoel-tel-aviv/2oQZQ2ur/</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45266.78125</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>H. Beer Sheva</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Sakhnin</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>2</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>03/12/2023 19:43</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>06/12/2023 18:36</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>03/12/2023 19:43</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>06/12/2023 18:40</t>
+        </is>
+      </c>
+      <c r="R48" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>03/12/2023 19:43</t>
+        </is>
+      </c>
+      <c r="T48" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>06/12/2023 18:40</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/h-beer-sheva-sakhnin/llmD91A7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45266.79166666666</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Beitar Jerusalem</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Hapoel Jerusalem</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>02/12/2023 18:43</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>06/12/2023 18:58</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>02/12/2023 18:43</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>06/12/2023 18:56</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>02/12/2023 18:43</t>
+        </is>
+      </c>
+      <c r="T49" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>06/12/2023 18:58</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/beitar-jerusalem-hapoel-jerusalem/r1q3WOHK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45269.58333333334</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Hapoel Petah Tikva</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>SC Ashdod</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>08/12/2023 05:43</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>09/12/2023 13:56</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>08/12/2023 05:43</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>09/12/2023 13:56</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>08/12/2023 05:43</t>
+        </is>
+      </c>
+      <c r="T50" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>09/12/2023 13:56</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-petah-tikva-sc-ashdod/WQHjNKv7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45269.6875</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Maccabi Bnei Raina</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>3</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Maccabi Petah Tikva</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>08/12/2023 14:05</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>09/12/2023 16:29</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>08/12/2023 14:05</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>09/12/2023 16:29</t>
+        </is>
+      </c>
+      <c r="R51" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>08/12/2023 14:05</t>
+        </is>
+      </c>
+      <c r="T51" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>09/12/2023 16:29</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/maccabi-bnei-raina-maccabi-petah-tikva/zaOsPtAf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45269.77083333334</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Hapoel Tel Aviv</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Hapoel Hadera</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>05/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>09/12/2023 18:18</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>05/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>09/12/2023 18:18</t>
+        </is>
+      </c>
+      <c r="R52" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>05/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T52" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>09/12/2023 18:18</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-tel-aviv-hapoel-hadera/l2SoO0P0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45270.77083333334</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Hapoel Jerusalem</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Hapoel Haifa</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>06/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>10/12/2023 18:26</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>06/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>10/12/2023 18:27</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>06/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T53" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>10/12/2023 18:26</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-jerusalem-hapoel-haifa/AHGfMvfD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45270.79166666666</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Sakhnin</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>2</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Maccabi Tel Aviv</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>3</v>
+      </c>
+      <c r="J54" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>06/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>10/12/2023 18:56</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>06/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>10/12/2023 18:56</t>
+        </is>
+      </c>
+      <c r="R54" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>06/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T54" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>10/12/2023 18:56</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/sakhnin-maccabi-tel-aviv/GE3tprnK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45270.8125</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Maccabi Haifa</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Beitar Jerusalem</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>06/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>10/12/2023 19:29</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>06/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>10/12/2023 19:29</t>
+        </is>
+      </c>
+      <c r="R55" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>06/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T55" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>10/12/2023 19:29</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/maccabi-haifa-beitar-jerusalem/xO4xoOWD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45271.79166666666</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Netanya</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>H. Beer Sheva</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>06/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>11/12/2023 18:56</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>06/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>11/12/2023 18:53</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>06/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T56" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>11/12/2023 18:53</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/netanya-h-beer-sheva/bwgoq21Q/</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45276.58333333334</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Maccabi Bnei Raina</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Hapoel Tel Aviv</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>12/12/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>16/12/2023 13:58</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>12/12/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>16/12/2023 13:52</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>12/12/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T57" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>16/12/2023 13:58</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/maccabi-bnei-raina-hapoel-tel-aviv/AyuxZHwJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45276.70833333334</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Hapoel Hadera</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Hapoel Petah Tikva</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>15/12/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>16/12/2023 16:55</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>15/12/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>16/12/2023 16:55</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>15/12/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T58" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>16/12/2023 16:55</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-hadera-hapoel-petah-tikva/b1yYZcOC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45276.70833333334</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Maccabi Petah Tikva</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>H. Beer Sheva</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>4</v>
+      </c>
+      <c r="J59" t="n">
+        <v>3</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>15/12/2023 20:17</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>16/12/2023 16:59</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>15/12/2023 20:17</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>16/12/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>15/12/2023 20:17</t>
+        </is>
+      </c>
+      <c r="T59" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>16/12/2023 16:59</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/maccabi-petah-tikva-h-beer-sheva/zapDvM9s/</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45276.70833333334</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>SC Ashdod</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>2</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Hapoel Jerusalem</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>12/12/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>16/12/2023 16:59</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>12/12/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>16/12/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>12/12/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T60" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>16/12/2023 16:59</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/sc-ashdod-hapoel-jerusalem/4vxUzv96/</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45276.77083333334</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Beitar Jerusalem</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Sakhnin</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>12/12/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>16/12/2023 18:17</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>12/12/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>16/12/2023 18:01</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>12/12/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T61" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>16/12/2023 18:17</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/beitar-jerusalem-sakhnin/8CrLx0vf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45277.79166666666</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Maccabi Tel Aviv</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>2</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Netanya</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>12/12/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>17/12/2023 17:41</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>12/12/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>17/12/2023 18:54</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>12/12/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T62" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>17/12/2023 18:54</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/maccabi-tel-aviv-netanya/ULqHwtPm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45277.8125</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Hapoel Haifa</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Maccabi Haifa</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>3</v>
+      </c>
+      <c r="J63" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>12/12/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>17/12/2023 19:27</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>12/12/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>17/12/2023 19:27</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>12/12/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T63" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>17/12/2023 19:27</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-haifa-maccabi-haifa/QmwQyKg0/</t>
         </is>
       </c>
     </row>

--- a/2023/israel_ligat-ha-al_2023-2024.xlsx
+++ b/2023/israel_ligat-ha-al_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V63"/>
+  <dimension ref="A1:V66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Hapoel Hadera</t>
+          <t>SC Ashdod</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Hapoel Petah Tikva</t>
+          <t>Hapoel Jerusalem</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>2.33</v>
+        <v>2.63</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>15/12/2023 14:42</t>
+          <t>12/12/2023 05:12</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>16/12/2023 16:55</t>
+          <t>16/12/2023 16:59</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.35</v>
+        <v>3.06</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>15/12/2023 14:42</t>
+          <t>12/12/2023 05:12</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.31</v>
+        <v>2.92</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>16/12/2023 16:55</t>
+          <t>16/12/2023 16:59</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>2.91</v>
+        <v>2.73</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>15/12/2023 14:42</t>
+          <t>12/12/2023 05:12</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>3.03</v>
+        <v>3.32</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>16/12/2023 16:55</t>
+          <t>16/12/2023 16:59</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-hadera-hapoel-petah-tikva/b1yYZcOC/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/sc-ashdod-hapoel-jerusalem/4vxUzv96/</t>
         </is>
       </c>
     </row>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Maccabi Petah Tikva</t>
+          <t>Hapoel Hadera</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -5825,63 +5825,63 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>H. Beer Sheva</t>
+          <t>Hapoel Petah Tikva</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>15/12/2023 20:17</t>
+          <t>15/12/2023 14:42</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>3.36</v>
+        <v>2.42</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>16/12/2023 16:59</t>
+          <t>16/12/2023 16:55</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.11</v>
+        <v>3.35</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>15/12/2023 20:17</t>
+          <t>15/12/2023 14:42</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.2</v>
+        <v>3.31</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>16/12/2023 16:59</t>
+          <t>16/12/2023 16:55</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>2.4</v>
+        <v>2.91</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>15/12/2023 20:17</t>
+          <t>15/12/2023 14:42</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>2.3</v>
+        <v>3.03</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>16/12/2023 16:59</t>
+          <t>16/12/2023 16:55</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/maccabi-petah-tikva-h-beer-sheva/zapDvM9s/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-hadera-hapoel-petah-tikva/b1yYZcOC/</t>
         </is>
       </c>
     </row>
@@ -5909,30 +5909,30 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>SC Ashdod</t>
+          <t>Maccabi Petah Tikva</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Hapoel Jerusalem</t>
+          <t>H. Beer Sheva</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J60" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>12/12/2023 05:12</t>
+          <t>15/12/2023 20:17</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.5</v>
+        <v>3.36</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -5940,15 +5940,15 @@
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.06</v>
+        <v>3.11</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>12/12/2023 05:12</t>
+          <t>15/12/2023 20:17</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5956,15 +5956,15 @@
         </is>
       </c>
       <c r="R60" t="n">
-        <v>2.73</v>
+        <v>2.4</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>12/12/2023 05:12</t>
+          <t>15/12/2023 20:17</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>3.32</v>
+        <v>2.3</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/sc-ashdod-hapoel-jerusalem/4vxUzv96/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/maccabi-petah-tikva-h-beer-sheva/zapDvM9s/</t>
         </is>
       </c>
     </row>
@@ -6250,6 +6250,282 @@
       <c r="V63" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-haifa-maccabi-haifa/QmwQyKg0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45279.75</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Hapoel Petah Tikva</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Maccabi Bnei Raina</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>18/12/2023 12:42</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>3</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>19/12/2023 17:55</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>18/12/2023 12:42</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>19/12/2023 16:00</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>18/12/2023 12:42</t>
+        </is>
+      </c>
+      <c r="T64" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>19/12/2023 17:55</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-petah-tikva-maccabi-bnei-raina/jXHOdLVP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45279.77083333334</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Hapoel Jerusalem</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Hapoel Hadera</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>16/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>19/12/2023 18:27</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>16/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>19/12/2023 18:27</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>16/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T65" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>19/12/2023 18:27</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-jerusalem-hapoel-hadera/rP9jhuvs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45279.79166666666</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Hapoel Tel Aviv</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>2</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Maccabi Petah Tikva</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>18/12/2023 12:42</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>19/12/2023 18:58</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>18/12/2023 12:42</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>19/12/2023 18:58</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>18/12/2023 12:42</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>19/12/2023 18:58</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-tel-aviv-maccabi-petah-tikva/CtJKc1GJ/</t>
         </is>
       </c>
     </row>

--- a/2023/israel_ligat-ha-al_2023-2024.xlsx
+++ b/2023/israel_ligat-ha-al_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V66"/>
+  <dimension ref="A1:V70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Hapoel Haifa</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Maccabi Bnei Raina</t>
+          <t>SC Ashdod</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.26</v>
+        <v>2.03</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.22</v>
+        <v>2.39</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>17/09/2023 18:39</t>
+          <t>17/09/2023 18:40</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>5.83</v>
+        <v>3.44</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>6.43</v>
+        <v>3.3</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>17/09/2023 18:39</t>
+          <t>17/09/2023 18:40</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>10.6</v>
+        <v>3.7</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>12.63</v>
+        <v>3.1</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>17/09/2023 18:39</t>
+          <t>17/09/2023 18:40</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/maccabi-tel-aviv-maccabi-bnei-raina/KQtDLnn5/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-haifa-sc-ashdod/ttVLJQGH/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Hapoel Haifa</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>SC Ashdod</t>
+          <t>Maccabi Bnei Raina</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>2.03</v>
+        <v>1.26</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.39</v>
+        <v>1.22</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>17/09/2023 18:40</t>
+          <t>17/09/2023 18:39</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.44</v>
+        <v>5.83</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.3</v>
+        <v>6.43</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>17/09/2023 18:40</t>
+          <t>17/09/2023 18:39</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>3.7</v>
+        <v>10.6</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>3.1</v>
+        <v>12.63</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>17/09/2023 18:40</t>
+          <t>17/09/2023 18:39</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-haifa-sc-ashdod/ttVLJQGH/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/maccabi-tel-aviv-maccabi-bnei-raina/KQtDLnn5/</t>
         </is>
       </c>
     </row>
@@ -6526,6 +6526,374 @@
       <c r="V66" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-tel-aviv-maccabi-petah-tikva/CtJKc1GJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45280.75</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Sakhnin</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>1</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Hapoel Haifa</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>17/12/2023 19:43</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>20/12/2023 17:56</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>17/12/2023 19:43</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>20/12/2023 17:56</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>17/12/2023 19:43</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>20/12/2023 17:56</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/sakhnin-hapoel-haifa/4vbajJ8g/</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45280.78125</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Netanya</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Beitar Jerusalem</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>3</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>17/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>20/12/2023 18:44</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>17/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>20/12/2023 18:42</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>17/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>20/12/2023 18:42</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/netanya-beitar-jerusalem/Is23kwOa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45280.79166666666</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Maccabi Haifa</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>4</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>SC Ashdod</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>17/12/2023 19:43</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>20/12/2023 18:55</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>17/12/2023 19:43</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>20/12/2023 18:55</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>17/12/2023 19:43</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>8.84</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>20/12/2023 18:55</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/maccabi-haifa-sc-ashdod/MF8fiagm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45280.8125</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>H. Beer Sheva</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Maccabi Tel Aviv</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>17/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>20/12/2023 19:28</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>17/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>20/12/2023 19:28</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>17/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T70" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>20/12/2023 19:28</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/h-beer-sheva-maccabi-tel-aviv/C417lcw6/</t>
         </is>
       </c>
     </row>

--- a/2023/israel_ligat-ha-al_2023-2024.xlsx
+++ b/2023/israel_ligat-ha-al_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V70"/>
+  <dimension ref="A1:V93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Netanya</t>
+          <t>Maccabi Petah Tikva</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Hapoel Petah Tikva</t>
+          <t>Maccabi Haifa</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>1.47</v>
+        <v>4.92</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.7</v>
+        <v>5.65</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>17/09/2023 18:55</t>
+          <t>17/09/2023 18:59</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>4.21</v>
+        <v>3.8</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.92</v>
+        <v>4.27</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>17/09/2023 18:55</t>
+          <t>17/09/2023 18:59</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>6.12</v>
+        <v>1.69</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>4.85</v>
+        <v>1.56</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>17/09/2023 18:55</t>
+          <t>17/09/2023 18:50</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/netanya-hapoel-petah-tikva/naT5N8Hh/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/maccabi-petah-tikva-maccabi-haifa/jXZdPUnt/</t>
         </is>
       </c>
     </row>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Maccabi Petah Tikva</t>
+          <t>Netanya</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Maccabi Haifa</t>
+          <t>Hapoel Petah Tikva</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>4.92</v>
+        <v>1.47</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>5.65</v>
+        <v>1.7</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>17/09/2023 18:59</t>
+          <t>17/09/2023 18:55</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.8</v>
+        <v>4.21</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>4.27</v>
+        <v>3.92</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>17/09/2023 18:59</t>
+          <t>17/09/2023 18:55</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>1.69</v>
+        <v>6.12</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>1.56</v>
+        <v>4.85</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>17/09/2023 18:50</t>
+          <t>17/09/2023 18:55</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/maccabi-petah-tikva-maccabi-haifa/jXZdPUnt/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/netanya-hapoel-petah-tikva/naT5N8Hh/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>SC Ashdod</t>
+          <t>Hapoel Hadera</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Hapoel Jerusalem</t>
+          <t>Hapoel Petah Tikva</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>12/12/2023 05:12</t>
+          <t>15/12/2023 14:42</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>16/12/2023 16:59</t>
+          <t>16/12/2023 16:55</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.06</v>
+        <v>3.35</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>12/12/2023 05:12</t>
+          <t>15/12/2023 14:42</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>2.92</v>
+        <v>3.31</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>16/12/2023 16:59</t>
+          <t>16/12/2023 16:55</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>2.73</v>
+        <v>2.91</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>12/12/2023 05:12</t>
+          <t>15/12/2023 14:42</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>3.32</v>
+        <v>3.03</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>16/12/2023 16:59</t>
+          <t>16/12/2023 16:55</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/sc-ashdod-hapoel-jerusalem/4vxUzv96/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-hadera-hapoel-petah-tikva/b1yYZcOC/</t>
         </is>
       </c>
     </row>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Hapoel Hadera</t>
+          <t>Maccabi Petah Tikva</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -5825,63 +5825,63 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Hapoel Petah Tikva</t>
+          <t>H. Beer Sheva</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J59" t="n">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>15/12/2023 14:42</t>
+          <t>15/12/2023 20:17</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.42</v>
+        <v>3.36</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>16/12/2023 16:55</t>
+          <t>16/12/2023 16:59</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.35</v>
+        <v>3.11</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>15/12/2023 14:42</t>
+          <t>15/12/2023 20:17</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.31</v>
+        <v>3.2</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>16/12/2023 16:55</t>
+          <t>16/12/2023 16:59</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>2.91</v>
+        <v>2.4</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>15/12/2023 14:42</t>
+          <t>15/12/2023 20:17</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>3.03</v>
+        <v>2.3</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>16/12/2023 16:55</t>
+          <t>16/12/2023 16:59</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-hadera-hapoel-petah-tikva/b1yYZcOC/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/maccabi-petah-tikva-h-beer-sheva/zapDvM9s/</t>
         </is>
       </c>
     </row>
@@ -5909,30 +5909,30 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Maccabi Petah Tikva</t>
+          <t>SC Ashdod</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>H. Beer Sheva</t>
+          <t>Hapoel Jerusalem</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>15/12/2023 20:17</t>
+          <t>12/12/2023 05:12</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>3.36</v>
+        <v>2.5</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -5940,15 +5940,15 @@
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.11</v>
+        <v>3.06</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>15/12/2023 20:17</t>
+          <t>12/12/2023 05:12</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.2</v>
+        <v>2.92</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5956,15 +5956,15 @@
         </is>
       </c>
       <c r="R60" t="n">
-        <v>2.4</v>
+        <v>2.73</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>15/12/2023 20:17</t>
+          <t>12/12/2023 05:12</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>2.3</v>
+        <v>3.32</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/maccabi-petah-tikva-h-beer-sheva/zapDvM9s/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/sc-ashdod-hapoel-jerusalem/4vxUzv96/</t>
         </is>
       </c>
     </row>
@@ -6894,6 +6894,2122 @@
       <c r="V70" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/israel/ligat-ha-al/h-beer-sheva-maccabi-tel-aviv/C417lcw6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45283.58333333334</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Hapoel Tel Aviv</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>4</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Hapoel Petah Tikva</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>20/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>23/12/2023 13:53</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>20/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>23/12/2023 13:53</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>20/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>23/12/2023 13:54</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-tel-aviv-hapoel-petah-tikva/r3zWjja4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45283.70833333334</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Hapoel Haifa</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>2</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Netanya</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>20/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>23/12/2023 16:58</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>20/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>23/12/2023 16:56</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>20/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>23/12/2023 16:58</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-haifa-netanya/fsfyV8xo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45283.70833333334</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>SC Ashdod</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Sakhnin</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>20/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>23/12/2023 16:55</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>20/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>23/12/2023 16:55</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>20/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>23/12/2023 16:55</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/sc-ashdod-sakhnin/8prJghFo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45283.71527777778</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Maccabi Bnei Raina</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Hapoel Jerusalem</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>19/12/2023 18:43</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>23/12/2023 16:57</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>19/12/2023 18:43</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>23/12/2023 16:57</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>19/12/2023 18:43</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>23/12/2023 16:57</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/maccabi-bnei-raina-hapoel-jerusalem/4CySiWqb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45283.77083333334</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Beitar Jerusalem</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>4</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>H. Beer Sheva</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>4</v>
+      </c>
+      <c r="J75" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>20/12/2023 19:42</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:25</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>20/12/2023 19:42</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:25</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>20/12/2023 19:42</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:25</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/beitar-jerusalem-h-beer-sheva/IHW7ny8I/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45284.79166666666</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Maccabi Petah Tikva</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>1</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Maccabi Tel Aviv</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>2</v>
+      </c>
+      <c r="J76" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>20/12/2023 19:42</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>24/12/2023 18:59</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>20/12/2023 19:42</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>24/12/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>20/12/2023 19:42</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>24/12/2023 18:52</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/maccabi-petah-tikva-maccabi-tel-aviv/je0BmHhC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45284.8125</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Hapoel Hadera</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>1</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Maccabi Haifa</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>5</v>
+      </c>
+      <c r="J77" t="n">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>20/12/2023 19:13</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>24/12/2023 19:29</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>20/12/2023 19:13</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>24/12/2023 19:29</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>20/12/2023 19:13</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>24/12/2023 19:29</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-hadera-maccabi-haifa/MmnNhCUi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45286.75</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Netanya</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>1</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>SC Ashdod</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>26/12/2023 17:52</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>26/12/2023 17:52</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>26/12/2023 17:52</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/netanya-sc-ashdod/27JErS6p/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45286.78125</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Hapoel Jerusalem</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>2</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Hapoel Tel Aviv</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>26/12/2023 18:37</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>26/12/2023 18:37</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T79" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>26/12/2023 18:37</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-jerusalem-hapoel-tel-aviv/jTwvkUTG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45286.79166666666</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>H. Beer Sheva</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>4</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Hapoel Haifa</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>26/12/2023 18:51</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>26/12/2023 18:51</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T80" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>26/12/2023 18:51</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/h-beer-sheva-hapoel-haifa/tbIIsnMj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45287.75</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Sakhnin</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Hapoel Hadera</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>24/12/2023 19:42</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>27/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>24/12/2023 19:42</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>27/12/2023 17:55</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>24/12/2023 19:42</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>27/12/2023 17:55</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/sakhnin-hapoel-hadera/pSWnm8bT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45287.78125</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Maccabi Petah Tikva</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>2</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Hapoel Petah Tikva</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>24/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>27/12/2023 18:44</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>24/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>27/12/2023 18:44</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>24/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>27/12/2023 18:44</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/maccabi-petah-tikva-hapoel-petah-tikva/CxuzjAEA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45287.79166666666</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Maccabi Haifa</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>1</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Maccabi Bnei Raina</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>24/12/2023 19:42</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>27/12/2023 18:11</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>24/12/2023 19:42</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>27/12/2023 18:42</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>24/12/2023 19:42</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>27/12/2023 18:42</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/maccabi-haifa-maccabi-bnei-raina/YiTrllqN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45287.8125</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Maccabi Tel Aviv</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>1</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Beitar Jerusalem</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>24/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>27/12/2023 19:26</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>24/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>27/12/2023 19:29</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>24/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>10.17</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>27/12/2023 19:29</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/maccabi-tel-aviv-beitar-jerusalem/IF116Vbi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45290.58333333334</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Hapoel Petah Tikva</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>1</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Hapoel Jerusalem</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>2</v>
+      </c>
+      <c r="J85" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>27/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>30/12/2023 13:57</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>3</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>27/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>30/12/2023 13:58</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>27/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T85" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>30/12/2023 13:57</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-petah-tikva-hapoel-jerusalem/zLwhdoyp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45290.70833333334</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Maccabi Bnei Raina</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Sakhnin</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>27/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>30/12/2023 16:57</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>27/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>30/12/2023 16:50</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>27/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>30/12/2023 16:57</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/maccabi-bnei-raina-sakhnin/QohM17DM/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45290.70833333334</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Hapoel Hadera</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>1</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Netanya</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>4</v>
+      </c>
+      <c r="J87" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>27/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>30/12/2023 16:57</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>27/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>30/12/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>27/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>30/12/2023 16:57</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-hadera-netanya/negI2mbG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45290.77083333334</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>SC Ashdod</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>1</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>H. Beer Sheva</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>3</v>
+      </c>
+      <c r="J88" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>26/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>30/12/2023 18:27</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>26/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>30/12/2023 18:27</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>26/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T88" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>30/12/2023 18:27</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/sc-ashdod-h-beer-sheva/4W3D3TrA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45291.78125</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Beitar Jerusalem</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>3</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Maccabi Petah Tikva</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>2</v>
+      </c>
+      <c r="J89" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>27/12/2023 19:43</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>31/12/2023 18:42</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>27/12/2023 19:43</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>31/12/2023 18:44</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>27/12/2023 19:43</t>
+        </is>
+      </c>
+      <c r="T89" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>31/12/2023 18:42</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/beitar-jerusalem-maccabi-petah-tikva/d6055kEc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45291.79166666666</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Hapoel Haifa</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Maccabi Tel Aviv</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>27/12/2023 19:43</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>31/12/2023 18:59</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>27/12/2023 19:43</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>31/12/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>27/12/2023 19:43</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>31/12/2023 18:59</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-haifa-maccabi-tel-aviv/jTa949T3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45291.8125</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Hapoel Tel Aviv</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Maccabi Haifa</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>27/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>31/12/2023 19:29</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>27/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>31/12/2023 19:29</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>27/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>31/12/2023 19:27</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-tel-aviv-maccabi-haifa/YBiQ0RSS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45293.75</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Maccabi Bnei Raina</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Netanya</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>3</v>
+      </c>
+      <c r="J92" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>30/12/2024 18:12</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>02/01/2024 17:50</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>30/12/2024 18:12</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>02/01/2024 17:50</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>30/12/2024 18:12</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>02/01/2024 17:50</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/maccabi-bnei-raina-netanya/EVCaFQsM/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45293.79166666666</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Hapoel Hadera</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>H. Beer Sheva</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>2</v>
+      </c>
+      <c r="J93" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>30/12/2024 18:43</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>02/01/2024 18:59</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>30/12/2024 18:43</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>02/01/2024 18:59</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>30/12/2024 18:43</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>02/01/2024 18:53</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-hadera-h-beer-sheva/pjLrJ8rc/</t>
         </is>
       </c>
     </row>

--- a/2023/israel_ligat-ha-al_2023-2024.xlsx
+++ b/2023/israel_ligat-ha-al_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V93"/>
+  <dimension ref="A1:V97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Hapoel Haifa</t>
+          <t>SC Ashdod</t>
         </is>
       </c>
       <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Hapoel Hadera</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
         <v>1</v>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Maccabi Bnei Raina</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>2</v>
-      </c>
       <c r="J31" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,48 +3264,48 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.11</v>
+        <v>1.81</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
+          <t>30/09/2023 18:41</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
           <t>30/09/2023 18:44</t>
         </is>
       </c>
-      <c r="N31" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="O31" t="inlineStr">
+      <c r="R31" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="S31" t="inlineStr">
         <is>
           <t>23/09/2023 18:13</t>
         </is>
       </c>
-      <c r="P31" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="Q31" t="inlineStr">
+      <c r="T31" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="U31" t="inlineStr">
         <is>
           <t>30/09/2023 18:44</t>
         </is>
       </c>
-      <c r="R31" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>23/09/2023 18:13</t>
-        </is>
-      </c>
-      <c r="T31" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>30/09/2023 18:44</t>
-        </is>
-      </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-haifa-maccabi-bnei-raina/xU1wcOQ1/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/sc-ashdod-hapoel-hadera/jXkLL732/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>SC Ashdod</t>
+          <t>Hapoel Haifa</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Hapoel Hadera</t>
+          <t>Maccabi Bnei Raina</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>2.13</v>
+        <v>2.07</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>1.81</v>
+        <v>2.11</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>30/09/2023 18:41</t>
+          <t>30/09/2023 18:44</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.34</v>
+        <v>3.37</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.58</v>
+        <v>3.32</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         </is>
       </c>
       <c r="R32" t="n">
-        <v>3.48</v>
+        <v>3.63</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>4.6</v>
+        <v>3.72</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/sc-ashdod-hapoel-hadera/jXkLL732/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-haifa-maccabi-bnei-raina/xU1wcOQ1/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Hapoel Hadera</t>
+          <t>Maccabi Petah Tikva</t>
         </is>
       </c>
       <c r="G44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Netanya</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Maccabi Bnei Raina</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>2</v>
-      </c>
       <c r="J44" t="n">
-        <v>2.99</v>
+        <v>2.42</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>02/12/2023 18:13</t>
+          <t>04/12/2023 12:06</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.63</v>
+        <v>2.82</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>05/12/2023 17:57</t>
+          <t>05/12/2023 17:52</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.14</v>
+        <v>3.21</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>02/12/2023 18:13</t>
+          <t>04/12/2023 12:06</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.18</v>
+        <v>3.35</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>05/12/2023 17:50</t>
+          <t>05/12/2023 17:51</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.39</v>
+        <v>2.89</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>02/12/2023 18:13</t>
+          <t>04/12/2023 12:06</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.86</v>
+        <v>2.56</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>05/12/2023 17:50</t>
+          <t>05/12/2023 17:52</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-hadera-maccabi-bnei-raina/txPwQMfl/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/maccabi-petah-tikva-netanya/Acl9Ase1/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Maccabi Petah Tikva</t>
+          <t>Hapoel Hadera</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Netanya</t>
+          <t>Maccabi Bnei Raina</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>2.42</v>
+        <v>2.99</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>04/12/2023 12:06</t>
+          <t>02/12/2023 18:13</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.82</v>
+        <v>2.63</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>05/12/2023 17:52</t>
+          <t>05/12/2023 17:57</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.21</v>
+        <v>3.14</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>04/12/2023 12:06</t>
+          <t>02/12/2023 18:13</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.35</v>
+        <v>3.18</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>05/12/2023 17:51</t>
+          <t>05/12/2023 17:50</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>2.89</v>
+        <v>2.39</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>04/12/2023 12:06</t>
+          <t>02/12/2023 18:13</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2.56</v>
+        <v>2.86</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>05/12/2023 17:52</t>
+          <t>05/12/2023 17:50</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/maccabi-petah-tikva-netanya/Acl9Ase1/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-hadera-maccabi-bnei-raina/txPwQMfl/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Hapoel Hadera</t>
+          <t>SC Ashdod</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Hapoel Petah Tikva</t>
+          <t>Hapoel Jerusalem</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>2.33</v>
+        <v>2.63</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>15/12/2023 14:42</t>
+          <t>12/12/2023 05:12</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>16/12/2023 16:55</t>
+          <t>16/12/2023 16:59</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.35</v>
+        <v>3.06</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>15/12/2023 14:42</t>
+          <t>12/12/2023 05:12</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.31</v>
+        <v>2.92</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>16/12/2023 16:55</t>
+          <t>16/12/2023 16:59</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>2.91</v>
+        <v>2.73</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>15/12/2023 14:42</t>
+          <t>12/12/2023 05:12</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>3.03</v>
+        <v>3.32</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>16/12/2023 16:55</t>
+          <t>16/12/2023 16:59</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-hadera-hapoel-petah-tikva/b1yYZcOC/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/sc-ashdod-hapoel-jerusalem/4vxUzv96/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>SC Ashdod</t>
+          <t>Hapoel Hadera</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Hapoel Jerusalem</t>
+          <t>Hapoel Petah Tikva</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>12/12/2023 05:12</t>
+          <t>15/12/2023 14:42</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>16/12/2023 16:59</t>
+          <t>16/12/2023 16:55</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.06</v>
+        <v>3.35</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>12/12/2023 05:12</t>
+          <t>15/12/2023 14:42</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>2.92</v>
+        <v>3.31</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>16/12/2023 16:59</t>
+          <t>16/12/2023 16:55</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>2.73</v>
+        <v>2.91</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>12/12/2023 05:12</t>
+          <t>15/12/2023 14:42</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>3.32</v>
+        <v>3.03</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>16/12/2023 16:59</t>
+          <t>16/12/2023 16:55</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/sc-ashdod-hapoel-jerusalem/4vxUzv96/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-hadera-hapoel-petah-tikva/b1yYZcOC/</t>
         </is>
       </c>
     </row>
@@ -8301,30 +8301,30 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Maccabi Bnei Raina</t>
+          <t>Hapoel Hadera</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Sakhnin</t>
+          <t>Netanya</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J86" t="n">
-        <v>2.31</v>
+        <v>3.85</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>27/12/2023 19:12</t>
+          <t>27/12/2023 18:12</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.6</v>
+        <v>4.84</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
@@ -8332,31 +8332,31 @@
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.14</v>
+        <v>3.56</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>27/12/2023 19:12</t>
+          <t>27/12/2023 18:12</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>2.96</v>
+        <v>3.9</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>30/12/2023 16:50</t>
+          <t>30/12/2023 16:59</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>3.14</v>
+        <v>1.87</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>27/12/2023 19:12</t>
+          <t>27/12/2023 18:12</t>
         </is>
       </c>
       <c r="T86" t="n">
-        <v>3.11</v>
+        <v>1.71</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/maccabi-bnei-raina-sakhnin/QohM17DM/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-hadera-netanya/negI2mbG/</t>
         </is>
       </c>
     </row>
@@ -8393,30 +8393,30 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Hapoel Hadera</t>
+          <t>Maccabi Bnei Raina</t>
         </is>
       </c>
       <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Sakhnin</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
         <v>1</v>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Netanya</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
-        <v>4</v>
-      </c>
       <c r="J87" t="n">
-        <v>3.85</v>
+        <v>2.31</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>27/12/2023 18:12</t>
+          <t>27/12/2023 19:12</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>4.84</v>
+        <v>2.6</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
@@ -8424,31 +8424,31 @@
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.56</v>
+        <v>3.14</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>27/12/2023 18:12</t>
+          <t>27/12/2023 19:12</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.9</v>
+        <v>2.96</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>30/12/2023 16:59</t>
+          <t>30/12/2023 16:50</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>1.87</v>
+        <v>3.14</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>27/12/2023 18:12</t>
+          <t>27/12/2023 19:12</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>1.71</v>
+        <v>3.11</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-hadera-netanya/negI2mbG/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/maccabi-bnei-raina-sakhnin/QohM17DM/</t>
         </is>
       </c>
     </row>
@@ -9010,6 +9010,374 @@
       <c r="V93" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-hadera-h-beer-sheva/pjLrJ8rc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45294.75</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Hapoel Jerusalem</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>3</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Maccabi Petah Tikva</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>31/12/2024 19:12</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>03/01/2024 17:55</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>3</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>31/12/2024 19:12</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>03/01/2024 17:55</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>31/12/2024 19:12</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>03/01/2024 17:55</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-jerusalem-maccabi-petah-tikva/K8DeG6SF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45294.78125</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Hapoel Tel Aviv</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>3</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Sakhnin</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>3</v>
+      </c>
+      <c r="J95" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>31/12/2024 19:42</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>03/01/2024 18:43</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>31/12/2024 19:42</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>03/01/2024 18:43</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>31/12/2024 19:42</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>03/01/2024 18:40</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-tel-aviv-sakhnin/tIEiHnD9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45294.79166666666</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>SC Ashdod</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>1</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Maccabi Tel Aviv</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>4</v>
+      </c>
+      <c r="J96" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>31/12/2024 19:12</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>03/01/2024 18:56</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>31/12/2024 19:12</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>03/01/2024 18:56</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>31/12/2024 19:12</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>03/01/2024 18:56</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/sc-ashdod-maccabi-tel-aviv/WnX0fP5d/</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45294.80208333334</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Hapoel Petah Tikva</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>2</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Maccabi Haifa</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>2</v>
+      </c>
+      <c r="J97" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>31/12/2024 19:42</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>03/01/2024 19:10</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>31/12/2024 19:42</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>03/01/2024 19:10</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>31/12/2024 19:42</t>
+        </is>
+      </c>
+      <c r="T97" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>03/01/2024 19:09</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-petah-tikva-maccabi-haifa/IqTde5jj/</t>
         </is>
       </c>
     </row>

--- a/2023/israel_ligat-ha-al_2023-2024.xlsx
+++ b/2023/israel_ligat-ha-al_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V97"/>
+  <dimension ref="A1:V98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,22 +757,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>H. Beer Sheva</t>
+          <t>Netanya</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Hapoel Hadera</t>
+          <t>Maccabi Bnei Raina</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>1.41</v>
+        <v>2.09</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -780,15 +780,15 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.34</v>
+        <v>1.73</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>23/08/2023 14:56</t>
+          <t>26/08/2023 15:32</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>4.54</v>
+        <v>3.3</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -796,15 +796,15 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>5.09</v>
+        <v>3.7</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>24/08/2023 19:03</t>
+          <t>26/08/2023 15:32</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>7.49</v>
+        <v>3.66</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -812,16 +812,16 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>8.470000000000001</v>
+        <v>5.01</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>23/08/2023 14:56</t>
+          <t>26/08/2023 17:28</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/h-beer-sheva-hapoel-hadera/Qkt5hlII/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/netanya-maccabi-bnei-raina/CtFNAVXn/</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Netanya</t>
+          <t>H. Beer Sheva</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Maccabi Bnei Raina</t>
+          <t>Hapoel Hadera</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2.09</v>
+        <v>1.41</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -872,15 +872,15 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1.73</v>
+        <v>1.34</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>26/08/2023 15:32</t>
+          <t>23/08/2023 14:56</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.3</v>
+        <v>4.54</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -888,15 +888,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.7</v>
+        <v>5.09</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>26/08/2023 15:32</t>
+          <t>24/08/2023 19:03</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>3.66</v>
+        <v>7.49</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>5.01</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>26/08/2023 17:28</t>
+          <t>23/08/2023 14:56</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/netanya-maccabi-bnei-raina/CtFNAVXn/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/h-beer-sheva-hapoel-hadera/Qkt5hlII/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>SC Ashdod</t>
+          <t>Hapoel Haifa</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Hapoel Hadera</t>
+          <t>Maccabi Bnei Raina</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>2.13</v>
+        <v>2.07</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.81</v>
+        <v>2.11</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>30/09/2023 18:41</t>
+          <t>30/09/2023 18:44</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.34</v>
+        <v>3.37</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.58</v>
+        <v>3.32</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3.48</v>
+        <v>3.63</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>4.6</v>
+        <v>3.72</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/sc-ashdod-hapoel-hadera/jXkLL732/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-haifa-maccabi-bnei-raina/xU1wcOQ1/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Hapoel Haifa</t>
+          <t>SC Ashdod</t>
         </is>
       </c>
       <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Hapoel Hadera</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
         <v>1</v>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Maccabi Bnei Raina</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>2</v>
-      </c>
       <c r="J32" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,48 +3356,48 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.11</v>
+        <v>1.81</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
+          <t>30/09/2023 18:41</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
           <t>30/09/2023 18:44</t>
         </is>
       </c>
-      <c r="N32" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="O32" t="inlineStr">
+      <c r="R32" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="S32" t="inlineStr">
         <is>
           <t>23/09/2023 18:13</t>
         </is>
       </c>
-      <c r="P32" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="Q32" t="inlineStr">
+      <c r="T32" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="U32" t="inlineStr">
         <is>
           <t>30/09/2023 18:44</t>
         </is>
       </c>
-      <c r="R32" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>23/09/2023 18:13</t>
-        </is>
-      </c>
-      <c r="T32" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>30/09/2023 18:44</t>
-        </is>
-      </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-haifa-maccabi-bnei-raina/xU1wcOQ1/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/sc-ashdod-hapoel-hadera/jXkLL732/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Maccabi Petah Tikva</t>
+          <t>Hapoel Hadera</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Netanya</t>
+          <t>Maccabi Bnei Raina</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>2.42</v>
+        <v>2.99</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>04/12/2023 12:06</t>
+          <t>02/12/2023 18:13</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.82</v>
+        <v>2.63</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>05/12/2023 17:52</t>
+          <t>05/12/2023 17:57</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.21</v>
+        <v>3.14</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>04/12/2023 12:06</t>
+          <t>02/12/2023 18:13</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.35</v>
+        <v>3.18</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>05/12/2023 17:51</t>
+          <t>05/12/2023 17:50</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.89</v>
+        <v>2.39</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>04/12/2023 12:06</t>
+          <t>02/12/2023 18:13</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.56</v>
+        <v>2.86</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>05/12/2023 17:52</t>
+          <t>05/12/2023 17:50</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/maccabi-petah-tikva-netanya/Acl9Ase1/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-hadera-maccabi-bnei-raina/txPwQMfl/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Hapoel Hadera</t>
+          <t>Maccabi Petah Tikva</t>
         </is>
       </c>
       <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Netanya</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Maccabi Bnei Raina</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>2</v>
-      </c>
       <c r="J45" t="n">
-        <v>2.99</v>
+        <v>2.42</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>02/12/2023 18:13</t>
+          <t>04/12/2023 12:06</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.63</v>
+        <v>2.82</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>05/12/2023 17:57</t>
+          <t>05/12/2023 17:52</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.14</v>
+        <v>3.21</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>02/12/2023 18:13</t>
+          <t>04/12/2023 12:06</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.18</v>
+        <v>3.35</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>05/12/2023 17:50</t>
+          <t>05/12/2023 17:51</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>2.39</v>
+        <v>2.89</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>02/12/2023 18:13</t>
+          <t>04/12/2023 12:06</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2.86</v>
+        <v>2.56</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>05/12/2023 17:50</t>
+          <t>05/12/2023 17:52</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-hadera-maccabi-bnei-raina/txPwQMfl/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/maccabi-petah-tikva-netanya/Acl9Ase1/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>SC Ashdod</t>
+          <t>Hapoel Hadera</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Hapoel Jerusalem</t>
+          <t>Hapoel Petah Tikva</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>12/12/2023 05:12</t>
+          <t>15/12/2023 14:42</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>16/12/2023 16:59</t>
+          <t>16/12/2023 16:55</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.06</v>
+        <v>3.35</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>12/12/2023 05:12</t>
+          <t>15/12/2023 14:42</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>2.92</v>
+        <v>3.31</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>16/12/2023 16:59</t>
+          <t>16/12/2023 16:55</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>2.73</v>
+        <v>2.91</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>12/12/2023 05:12</t>
+          <t>15/12/2023 14:42</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>3.32</v>
+        <v>3.03</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>16/12/2023 16:59</t>
+          <t>16/12/2023 16:55</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/sc-ashdod-hapoel-jerusalem/4vxUzv96/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-hadera-hapoel-petah-tikva/b1yYZcOC/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Hapoel Hadera</t>
+          <t>SC Ashdod</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Hapoel Petah Tikva</t>
+          <t>Hapoel Jerusalem</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>2.33</v>
+        <v>2.63</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>15/12/2023 14:42</t>
+          <t>12/12/2023 05:12</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>16/12/2023 16:55</t>
+          <t>16/12/2023 16:59</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.35</v>
+        <v>3.06</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>15/12/2023 14:42</t>
+          <t>12/12/2023 05:12</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.31</v>
+        <v>2.92</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>16/12/2023 16:55</t>
+          <t>16/12/2023 16:59</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>2.91</v>
+        <v>2.73</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>15/12/2023 14:42</t>
+          <t>12/12/2023 05:12</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>3.03</v>
+        <v>3.32</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>16/12/2023 16:55</t>
+          <t>16/12/2023 16:59</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-hadera-hapoel-petah-tikva/b1yYZcOC/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/sc-ashdod-hapoel-jerusalem/4vxUzv96/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Hapoel Haifa</t>
+          <t>SC Ashdod</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Netanya</t>
+          <t>Sakhnin</t>
         </is>
       </c>
       <c r="I72" t="n">
         <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>2.74</v>
+        <v>2.1</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>3.04</v>
+        <v>2.19</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>23/12/2023 16:58</t>
+          <t>23/12/2023 16:55</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.18</v>
+        <v>3.22</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.37</v>
+        <v>3.32</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>23/12/2023 16:56</t>
+          <t>23/12/2023 16:55</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>2.53</v>
+        <v>3.48</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>2.39</v>
+        <v>3.5</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>23/12/2023 16:58</t>
+          <t>23/12/2023 16:55</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-haifa-netanya/fsfyV8xo/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/sc-ashdod-sakhnin/8prJghFo/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>SC Ashdod</t>
+          <t>Hapoel Haifa</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Sakhnin</t>
+          <t>Netanya</t>
         </is>
       </c>
       <c r="I73" t="n">
         <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>2.1</v>
+        <v>2.74</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.19</v>
+        <v>3.04</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>23/12/2023 16:55</t>
+          <t>23/12/2023 16:58</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.22</v>
+        <v>3.18</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.32</v>
+        <v>3.37</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>23/12/2023 16:55</t>
+          <t>23/12/2023 16:56</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>3.48</v>
+        <v>2.53</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>3.5</v>
+        <v>2.39</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>23/12/2023 16:55</t>
+          <t>23/12/2023 16:58</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/sc-ashdod-sakhnin/8prJghFo/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-haifa-netanya/fsfyV8xo/</t>
         </is>
       </c>
     </row>
@@ -9378,6 +9378,98 @@
       <c r="V97" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-petah-tikva-maccabi-haifa/IqTde5jj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45295.8125</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Hapoel Haifa</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>3</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Beitar Jerusalem</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>2</v>
+      </c>
+      <c r="J98" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>31/12/2024 19:17</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>04/01/2024 19:26</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>31/12/2024 19:17</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>04/01/2024 19:26</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>31/12/2024 19:17</t>
+        </is>
+      </c>
+      <c r="T98" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>04/01/2024 19:26</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-haifa-beitar-jerusalem/OtKnISc3/</t>
         </is>
       </c>
     </row>

--- a/2023/israel_ligat-ha-al_2023-2024.xlsx
+++ b/2023/israel_ligat-ha-al_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V98"/>
+  <dimension ref="A1:V101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,22 +757,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Netanya</t>
+          <t>H. Beer Sheva</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Maccabi Bnei Raina</t>
+          <t>Hapoel Hadera</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.09</v>
+        <v>1.41</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -780,15 +780,15 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.73</v>
+        <v>1.34</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>26/08/2023 15:32</t>
+          <t>23/08/2023 14:56</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.3</v>
+        <v>4.54</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -796,15 +796,15 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.7</v>
+        <v>5.09</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>26/08/2023 15:32</t>
+          <t>24/08/2023 19:03</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>3.66</v>
+        <v>7.49</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -812,16 +812,16 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>5.01</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>26/08/2023 17:28</t>
+          <t>23/08/2023 14:56</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/netanya-maccabi-bnei-raina/CtFNAVXn/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/h-beer-sheva-hapoel-hadera/Qkt5hlII/</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>H. Beer Sheva</t>
+          <t>Netanya</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Hapoel Hadera</t>
+          <t>Maccabi Bnei Raina</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>1.41</v>
+        <v>2.09</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -872,15 +872,15 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1.34</v>
+        <v>1.73</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>23/08/2023 14:56</t>
+          <t>26/08/2023 15:32</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>4.54</v>
+        <v>3.3</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -888,15 +888,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>5.09</v>
+        <v>3.7</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>24/08/2023 19:03</t>
+          <t>26/08/2023 15:32</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>7.49</v>
+        <v>3.66</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>8.470000000000001</v>
+        <v>5.01</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>23/08/2023 14:56</t>
+          <t>26/08/2023 17:28</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/h-beer-sheva-hapoel-hadera/Qkt5hlII/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/netanya-maccabi-bnei-raina/CtFNAVXn/</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Hapoel Jerusalem</t>
+          <t>SC Ashdod</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -2605,63 +2605,63 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Netanya</t>
+          <t>Maccabi Petah Tikva</t>
         </is>
       </c>
       <c r="I24" t="n">
         <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>2.7</v>
+        <v>2.16</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>17/09/2023 18:12</t>
+          <t>20/09/2023 15:12</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.66</v>
+        <v>2.37</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>23/09/2023 18:44</t>
+          <t>23/09/2023 18:43</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.21</v>
+        <v>3.31</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>17/09/2023 18:12</t>
+          <t>20/09/2023 15:12</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.22</v>
+        <v>3.32</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>23/09/2023 18:37</t>
+          <t>23/09/2023 18:42</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>2.58</v>
+        <v>3.45</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>17/09/2023 18:12</t>
+          <t>20/09/2023 15:12</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>2.8</v>
+        <v>3.12</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>23/09/2023 18:44</t>
+          <t>23/09/2023 18:43</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-jerusalem-netanya/2DlpKfSc/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/sc-ashdod-maccabi-petah-tikva/fqZPIpWN/</t>
         </is>
       </c>
     </row>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>SC Ashdod</t>
+          <t>Hapoel Jerusalem</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -2697,63 +2697,63 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Maccabi Petah Tikva</t>
+          <t>Netanya</t>
         </is>
       </c>
       <c r="I25" t="n">
         <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>2.16</v>
+        <v>2.7</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>20/09/2023 15:12</t>
+          <t>17/09/2023 18:12</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.37</v>
+        <v>2.66</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>23/09/2023 18:43</t>
+          <t>23/09/2023 18:44</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.31</v>
+        <v>3.21</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>20/09/2023 15:12</t>
+          <t>17/09/2023 18:12</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.32</v>
+        <v>3.22</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>23/09/2023 18:42</t>
+          <t>23/09/2023 18:37</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.45</v>
+        <v>2.58</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>20/09/2023 15:12</t>
+          <t>17/09/2023 18:12</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>3.12</v>
+        <v>2.8</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>23/09/2023 18:43</t>
+          <t>23/09/2023 18:44</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/sc-ashdod-maccabi-petah-tikva/fqZPIpWN/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-jerusalem-netanya/2DlpKfSc/</t>
         </is>
       </c>
     </row>
@@ -8301,30 +8301,30 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Hapoel Hadera</t>
+          <t>Maccabi Bnei Raina</t>
         </is>
       </c>
       <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Sakhnin</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
         <v>1</v>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Netanya</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
-        <v>4</v>
-      </c>
       <c r="J86" t="n">
-        <v>3.85</v>
+        <v>2.31</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>27/12/2023 18:12</t>
+          <t>27/12/2023 19:12</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>4.84</v>
+        <v>2.6</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
@@ -8332,31 +8332,31 @@
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.56</v>
+        <v>3.14</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>27/12/2023 18:12</t>
+          <t>27/12/2023 19:12</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.9</v>
+        <v>2.96</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>30/12/2023 16:59</t>
+          <t>30/12/2023 16:50</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>1.87</v>
+        <v>3.14</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>27/12/2023 18:12</t>
+          <t>27/12/2023 19:12</t>
         </is>
       </c>
       <c r="T86" t="n">
-        <v>1.71</v>
+        <v>3.11</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-hadera-netanya/negI2mbG/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/maccabi-bnei-raina-sakhnin/QohM17DM/</t>
         </is>
       </c>
     </row>
@@ -8393,30 +8393,30 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Maccabi Bnei Raina</t>
+          <t>Hapoel Hadera</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Sakhnin</t>
+          <t>Netanya</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J87" t="n">
-        <v>2.31</v>
+        <v>3.85</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>27/12/2023 19:12</t>
+          <t>27/12/2023 18:12</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.6</v>
+        <v>4.84</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
@@ -8424,31 +8424,31 @@
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.14</v>
+        <v>3.56</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>27/12/2023 19:12</t>
+          <t>27/12/2023 18:12</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>2.96</v>
+        <v>3.9</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>30/12/2023 16:50</t>
+          <t>30/12/2023 16:59</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>3.14</v>
+        <v>1.87</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>27/12/2023 19:12</t>
+          <t>27/12/2023 18:12</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>3.11</v>
+        <v>1.71</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/maccabi-bnei-raina-sakhnin/QohM17DM/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-hadera-netanya/negI2mbG/</t>
         </is>
       </c>
     </row>
@@ -9470,6 +9470,282 @@
       <c r="V98" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-haifa-beitar-jerusalem/OtKnISc3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45297.58333333334</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>H. Beer Sheva</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>4</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Maccabi Bnei Raina</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>02/01/2024 19:12</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>06/01/2024 13:58</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>02/01/2024 19:12</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>06/01/2024 13:58</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>02/01/2024 19:12</t>
+        </is>
+      </c>
+      <c r="T99" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>06/01/2024 13:58</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/h-beer-sheva-maccabi-bnei-raina/QNBw8rzd/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45297.70833333334</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Sakhnin</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Hapoel Petah Tikva</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>03/01/2024 19:42</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>06/01/2024 16:52</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>03/01/2024 19:42</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>06/01/2024 16:52</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>03/01/2024 19:42</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
+        <v>4</v>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>06/01/2024 16:52</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/sakhnin-hapoel-petah-tikva/6JlQVoS2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45297.77083333334</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Netanya</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>2</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Hapoel Tel Aviv</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>05/01/2024 14:29</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>06/01/2024 18:28</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>05/01/2024 14:29</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>06/01/2024 18:28</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>05/01/2024 14:29</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>06/01/2024 18:28</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/netanya-hapoel-tel-aviv/4EAs72k2/</t>
         </is>
       </c>
     </row>
